--- a/src/test/resources/015 One-team-two-mh-one-prod-two-strategic-projects-with-overflow_v2.xlsx
+++ b/src/test/resources/015 One-team-two-mh-one-prod-two-strategic-projects-with-overflow_v2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProjektPortfolio\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20625" windowHeight="8340"/>
   </bookViews>
@@ -96,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,467 +138,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -629,6 +174,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -905,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1264,25 +812,28 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -1291,199 +842,199 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="1">
+      <c r="A45" s="1">
         <v>42461</v>
+      </c>
+      <c r="B45">
+        <v>2.5</v>
       </c>
       <c r="C45">
         <v>2.5</v>
       </c>
       <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B46">
         <v>2.5</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="1">
-        <v>42491</v>
       </c>
       <c r="C46">
         <v>2.5</v>
       </c>
       <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B47">
         <v>2.5</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="1">
-        <v>42522</v>
       </c>
       <c r="C47">
         <v>2.5</v>
       </c>
       <c r="D47">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B48">
         <v>2</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="1">
-        <v>42552</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B49">
         <v>2</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="1">
-        <v>42583</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B50">
         <v>2</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="1">
-        <v>42614</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="1">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>42644</v>
+      </c>
+      <c r="B51">
+        <v>2.5</v>
       </c>
       <c r="C51">
         <v>2.5</v>
       </c>
       <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B52">
         <v>2.5</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="1">
-        <v>42675</v>
       </c>
       <c r="C52">
         <v>2.5</v>
       </c>
       <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B53">
         <v>2.5</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="1">
-        <v>42705</v>
       </c>
       <c r="C53">
         <v>2.5</v>
       </c>
       <c r="D53">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="1">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>42736</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>0</v>
       </c>
@@ -1494,16 +1045,16 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="1">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>42767</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>0</v>
       </c>
@@ -1516,14 +1067,14 @@
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="1">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>42795</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>0</v>
       </c>
@@ -1536,14 +1087,14 @@
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="1">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>42826</v>
       </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
       <c r="C57">
         <v>0</v>
       </c>
@@ -1556,14 +1107,14 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="1">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>42856</v>
       </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
       <c r="C58">
         <v>0</v>
       </c>
@@ -1576,14 +1127,14 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="1">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>42887</v>
       </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
       <c r="C59">
         <v>0</v>
       </c>
@@ -1596,14 +1147,14 @@
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="1">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>42917</v>
       </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
       <c r="C60">
         <v>0</v>
       </c>
@@ -1616,14 +1167,14 @@
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="1">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>42948</v>
       </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
       <c r="C61">
         <v>0</v>
       </c>
@@ -1636,14 +1187,14 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="1">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>42979</v>
       </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
       <c r="C62">
         <v>0</v>
       </c>
@@ -1656,14 +1207,14 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="1">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>43009</v>
       </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
       <c r="C63">
         <v>0</v>
       </c>
@@ -1676,14 +1227,14 @@
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="1">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>43040</v>
       </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
       <c r="C64">
         <v>0</v>
       </c>
@@ -1696,14 +1247,14 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="1">
+      <c r="A65" s="1">
         <v>43070</v>
       </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
       <c r="C65">
         <v>0</v>
       </c>
@@ -1716,14 +1267,14 @@
       <c r="F65">
         <v>0</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="1">
+      <c r="A66" s="1">
         <v>43101</v>
       </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
       <c r="C66">
         <v>0</v>
       </c>
@@ -1736,14 +1287,14 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="1">
+      <c r="A67" s="1">
         <v>43132</v>
       </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
       <c r="C67">
         <v>0</v>
       </c>
@@ -1756,14 +1307,14 @@
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="1">
+      <c r="A68" s="1">
         <v>43160</v>
       </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
       <c r="C68">
         <v>0</v>
       </c>
@@ -1774,9 +1325,6 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
         <v>0</v>
       </c>
     </row>
@@ -1835,15 +1383,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C42:G42">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:I68">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
